--- a/test1.xlsx
+++ b/test1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
   <si>
     <t>word1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>frame</t>
   </si>
   <si>
+    <t>tafo</t>
+  </si>
+  <si>
     <t>policite</t>
   </si>
   <si>
@@ -40,24 +43,21 @@
     <t>f</t>
   </si>
   <si>
-    <t>−0.005</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>polic</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
     <t>plansy</t>
   </si>
   <si>
     <t>pransy</t>
   </si>
   <si>
-    <t>−0.047</t>
-  </si>
-  <si>
     <t>plan</t>
   </si>
   <si>
@@ -145,24 +145,6 @@
     <t>blac</t>
   </si>
   <si>
-    <t>arivina</t>
-  </si>
-  <si>
-    <t>alivina</t>
-  </si>
-  <si>
-    <t>aliv</t>
-  </si>
-  <si>
-    <t>cleahao</t>
-  </si>
-  <si>
-    <t>creahao</t>
-  </si>
-  <si>
-    <t>clea</t>
-  </si>
-  <si>
     <t>blaiclo</t>
   </si>
   <si>
@@ -175,84 +157,48 @@
     <t>brai</t>
   </si>
   <si>
-    <t>pletagy</t>
-  </si>
-  <si>
-    <t>pretagy</t>
-  </si>
-  <si>
-    <t>pret</t>
-  </si>
-  <si>
-    <t>preshug</t>
-  </si>
-  <si>
-    <t>pleshug</t>
-  </si>
-  <si>
-    <t>pres</t>
+    <t>crazinga</t>
   </si>
   <si>
     <t>clazinga</t>
   </si>
   <si>
-    <t>crazinga</t>
-  </si>
-  <si>
     <t>craz</t>
   </si>
   <si>
+    <t>tlusbada</t>
+  </si>
+  <si>
     <t>trusbada</t>
   </si>
   <si>
-    <t>tlusbada</t>
-  </si>
-  <si>
     <t>trus</t>
   </si>
   <si>
+    <t>dlinnsy</t>
+  </si>
+  <si>
     <t>drinnsy</t>
   </si>
   <si>
-    <t>dlinnsy</t>
-  </si>
-  <si>
     <t>drin</t>
   </si>
   <si>
-    <t>dlophte</t>
-  </si>
-  <si>
-    <t>drophte</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>franneray</t>
-  </si>
-  <si>
-    <t>flanneray</t>
-  </si>
-  <si>
-    <t>fran</t>
+    <t>privuguri</t>
   </si>
   <si>
     <t>plivuguri</t>
   </si>
   <si>
-    <t>privuguri</t>
-  </si>
-  <si>
     <t>priv</t>
   </si>
   <si>
+    <t>tlaivine</t>
+  </si>
+  <si>
     <t>traivine</t>
   </si>
   <si>
-    <t>tlaivine</t>
-  </si>
-  <si>
     <t>trai</t>
   </si>
   <si>
@@ -265,33 +211,15 @@
     <t>driv</t>
   </si>
   <si>
-    <t>presvine</t>
-  </si>
-  <si>
-    <t>plesvine</t>
+    <t>trutant</t>
   </si>
   <si>
     <t>tlutant</t>
   </si>
   <si>
-    <t>trutant</t>
-  </si>
-  <si>
     <t>trut</t>
   </si>
   <si>
-    <t>goelsen</t>
-  </si>
-  <si>
-    <t>goersen</t>
-  </si>
-  <si>
-    <t>−0.007</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>kopalton</t>
   </si>
   <si>
@@ -319,15 +247,6 @@
     <t>tart</t>
   </si>
   <si>
-    <t>gittrygen</t>
-  </si>
-  <si>
-    <t>gittlygen</t>
-  </si>
-  <si>
-    <t>try</t>
-  </si>
-  <si>
     <t>sufromer</t>
   </si>
   <si>
@@ -337,76 +256,127 @@
     <t>from</t>
   </si>
   <si>
+    <t>suild</t>
+  </si>
+  <si>
     <t>suird</t>
   </si>
   <si>
-    <t>suild</t>
-  </si>
-  <si>
     <t>uild</t>
   </si>
   <si>
-    <t>joally</t>
-  </si>
-  <si>
-    <t>joarly</t>
-  </si>
-  <si>
-    <t>ally</t>
+    <t>higflat</t>
   </si>
   <si>
     <t>higfrat</t>
   </si>
   <si>
-    <t>higflat</t>
-  </si>
-  <si>
-    <t>−0.004</t>
-  </si>
-  <si>
     <t>flat</t>
   </si>
   <si>
+    <t>gosrip</t>
+  </si>
+  <si>
     <t>goslip</t>
   </si>
   <si>
-    <t>gosrip</t>
-  </si>
-  <si>
     <t>slip</t>
   </si>
   <si>
+    <t>bokold</t>
+  </si>
+  <si>
     <t>bokord</t>
   </si>
   <si>
-    <t>bokold</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>mopran</t>
+  </si>
+  <si>
     <t>moplan</t>
   </si>
   <si>
-    <t>mopran</t>
+    <t>junblue</t>
   </si>
   <si>
     <t>junbrue</t>
   </si>
   <si>
-    <t>junblue</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
+    <t>kimotlipsin</t>
+  </si>
+  <si>
     <t>kimotripsin</t>
   </si>
   <si>
-    <t>kimotlipsin</t>
-  </si>
-  <si>
     <t>trip</t>
+  </si>
+  <si>
+    <t>shoomb</t>
+  </si>
+  <si>
+    <t>shoomv</t>
+  </si>
+  <si>
+    <t>foil</t>
+  </si>
+  <si>
+    <t>pawph</t>
+  </si>
+  <si>
+    <t>fawph</t>
+  </si>
+  <si>
+    <t>sfossed</t>
+  </si>
+  <si>
+    <t>spossed</t>
+  </si>
+  <si>
+    <t>foonth</t>
+  </si>
+  <si>
+    <t>poonth</t>
+  </si>
+  <si>
+    <t>penets</t>
+  </si>
+  <si>
+    <t>fenets</t>
+  </si>
+  <si>
+    <t>feant</t>
+  </si>
+  <si>
+    <t>peant</t>
+  </si>
+  <si>
+    <t>comfte</t>
+  </si>
+  <si>
+    <t>compte</t>
+  </si>
+  <si>
+    <t>trente</t>
+  </si>
+  <si>
+    <t>trende</t>
+  </si>
+  <si>
+    <t>dwons</t>
+  </si>
+  <si>
+    <t>twons</t>
+  </si>
+  <si>
+    <t>fumfs</t>
+  </si>
+  <si>
+    <t>pumfs</t>
   </si>
 </sst>
 </file>
@@ -420,7 +390,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -443,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -451,11 +420,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -494,805 +462,868 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0047</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>0.0823</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.0823</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="2">
+        <v>0.0038</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.0038</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="D23" s="2">
+        <v>0.0065</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.0072</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.0038</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>88</v>
+      <c r="D27" s="2">
+        <v>0.0072</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.0038</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
+        <v>0.0072</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.0038</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.0038</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.0065</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="2" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.0466</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>131</v>
+        <v>9</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
